--- a/Tablacomparativa.xlsx
+++ b/Tablacomparativa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\WorkSpaceUnity\ProyectoDAM\ProyectoDAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C2B2A77-F9A6-4353-941F-6F64B23302EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D007FC09-9438-429C-BBF3-0E69D4DA833F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{318D44C4-ABBD-44B9-AAA2-5848BD3C7F9D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Parking Shield</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t>Gestion de incidencias</t>
-  </si>
-  <si>
-    <t>Basada en la nube</t>
-  </si>
-  <si>
-    <t>Seguimiento de infracciones</t>
   </si>
   <si>
     <t>Panel de actividades</t>
@@ -504,38 +498,218 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="295275" cy="315924"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC75C2DF-DABB-403E-A9FA-6AC9832EE11C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="1295400"/>
+          <a:ext cx="295275" cy="315924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="295275" cy="315924"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C7A906-0768-4794-B417-D6993A71596B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="923925"/>
+          <a:ext cx="295275" cy="315924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="295275" cy="315924"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149F8719-A8B1-46CF-99D1-185588FBFF61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="1647825"/>
+          <a:ext cx="295275" cy="315924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="295275" cy="315924"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14DAB93-1C1E-49E4-A4F1-042092AB2697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="1647825"/>
+          <a:ext cx="295275" cy="315924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="295275" cy="315924"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255581D0-5978-4FD0-B138-05BD2ED73A92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3752850" y="1295400"/>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B731A93-3B52-49DF-87DD-ACEFAF8A4E04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="2324100"/>
           <a:ext cx="295275" cy="315924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -555,122 +729,32 @@
     <xdr:ext cx="295275" cy="315924"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9827491-2AF7-4046-A325-B171B1B328E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="923925"/>
-          <a:ext cx="295275" cy="315924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="295275" cy="315924"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagen 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC75C2DF-DABB-403E-A9FA-6AC9832EE11C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3752850" y="1295400"/>
-          <a:ext cx="295275" cy="315924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1466850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="295275" cy="315924"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Imagen 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C7A906-0768-4794-B417-D6993A71596B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="923925"/>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8FB10D-005E-4820-8B1A-DB788088CCAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="2324100"/>
           <a:ext cx="295275" cy="315924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -690,32 +774,32 @@
     <xdr:ext cx="295275" cy="315924"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagen 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149F8719-A8B1-46CF-99D1-185588FBFF61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3752850" y="1647825"/>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04159A0E-C69D-4B5F-B4F9-818A9E3577E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="2676525"/>
           <a:ext cx="295275" cy="315924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -735,32 +819,32 @@
     <xdr:ext cx="295275" cy="315924"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Imagen 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14DAB93-1C1E-49E4-A4F1-042092AB2697}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="1647825"/>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EE73EB-B9BE-4FDC-AE17-883D3D4882CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="2676525"/>
           <a:ext cx="295275" cy="315924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -780,32 +864,32 @@
     <xdr:ext cx="295275" cy="315924"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Imagen 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B731A93-3B52-49DF-87DD-ACEFAF8A4E04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3752850" y="2324100"/>
+        <xdr:cNvPr id="22" name="Imagen 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AECCB47-4BD4-4692-954F-BE1D7174182E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="3114675"/>
           <a:ext cx="295275" cy="315924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -825,32 +909,32 @@
     <xdr:ext cx="295275" cy="315924"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Imagen 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8FB10D-005E-4820-8B1A-DB788088CCAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="2324100"/>
+        <xdr:cNvPr id="23" name="Imagen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135376E0-ECA7-4E71-98BA-00489178C958}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="3114675"/>
           <a:ext cx="295275" cy="315924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -870,32 +954,32 @@
     <xdr:ext cx="295275" cy="315924"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Imagen 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04159A0E-C69D-4B5F-B4F9-818A9E3577E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3752850" y="2676525"/>
+        <xdr:cNvPr id="24" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B147E02A-691C-4F57-B397-87D7945A920D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="3505200"/>
           <a:ext cx="295275" cy="315924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -908,40 +992,40 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:colOff>1457325</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="295275" cy="315924"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Imagen 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EE73EB-B9BE-4FDC-AE17-883D3D4882CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="2676525"/>
-          <a:ext cx="295275" cy="315924"/>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="299255" cy="314325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EFB3DA-D83F-4A87-9CD6-9BEFC841C7CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="1304925"/>
+          <a:ext cx="299255" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -953,40 +1037,40 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:colOff>1066800</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="295275" cy="315924"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Imagen 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AECCB47-4BD4-4692-954F-BE1D7174182E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3752850" y="3114675"/>
-          <a:ext cx="295275" cy="315924"/>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="299255" cy="314325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4799DDA5-6782-4FB3-9CF5-F92465072C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="552450"/>
+          <a:ext cx="299255" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,186 +1084,6 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>1466850</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="295275" cy="315924"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagen 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135376E0-ECA7-4E71-98BA-00489178C958}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6724650" y="3114675"/>
-          <a:ext cx="295275" cy="315924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="295275" cy="315924"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Imagen 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B147E02A-691C-4F57-B397-87D7945A920D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3752850" y="3505200"/>
-          <a:ext cx="295275" cy="315924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1457325</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="299255" cy="314325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagen 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EFB3DA-D83F-4A87-9CD6-9BEFC841C7CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6715125" y="1304925"/>
-          <a:ext cx="299255" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="299255" cy="314325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Imagen 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4799DDA5-6782-4FB3-9CF5-F92465072C6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3743325" y="552450"/>
-          <a:ext cx="299255" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1466850</xdr:colOff>
-      <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="295275" cy="315924"/>
@@ -1523,7 +1427,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,12 +1467,12 @@
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1591,16 +1495,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
